--- a/lab2_SIMD/SIMD实验数据.xlsx
+++ b/lab2_SIMD/SIMD实验数据.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>普通高斯消元实验1：不同部分向量化</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,42 @@
   </si>
   <si>
     <t>加速比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊高斯消元实验1：不同平台、不同指令向量化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串行(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neon(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串行(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSE(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVX(ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +215,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -224,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q30"/>
+  <dimension ref="B2:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="88" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1415,6 +1451,123 @@
         <v>3.4678025868783058</v>
       </c>
     </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>130</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D37">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F37">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>254</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.2321</v>
+      </c>
+      <c r="D38">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F38">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>562</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="D39">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="F39">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1011</v>
+      </c>
+      <c r="C40">
+        <v>15.922000000000001</v>
+      </c>
+      <c r="D40">
+        <v>14.784000000000001</v>
+      </c>
+      <c r="F40">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2362</v>
+      </c>
+      <c r="C41">
+        <v>122.41500000000001</v>
+      </c>
+      <c r="D41">
+        <v>105.70399999999999</v>
+      </c>
+      <c r="F41">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>3799</v>
+      </c>
+      <c r="C42">
+        <v>2398.8200000000002</v>
+      </c>
+      <c r="D42">
+        <v>2075.38</v>
+      </c>
+      <c r="F42">
+        <v>3799</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab2_SIMD/SIMD实验数据.xlsx
+++ b/lab2_SIMD/SIMD实验数据.xlsx
@@ -543,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q42"/>
+  <dimension ref="B2:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="88" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1497,6 +1497,15 @@
       <c r="F37">
         <v>130</v>
       </c>
+      <c r="G37">
+        <v>5.9449999999999998E-3</v>
+      </c>
+      <c r="H37">
+        <v>7.5570000000000003E-3</v>
+      </c>
+      <c r="I37">
+        <v>6.3270000000000002E-3</v>
+      </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38">
@@ -1511,6 +1520,15 @@
       <c r="F38">
         <v>254</v>
       </c>
+      <c r="G38">
+        <v>0.213588</v>
+      </c>
+      <c r="H38">
+        <v>0.17572199999999999</v>
+      </c>
+      <c r="I38">
+        <v>0.15975600000000001</v>
+      </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39">
@@ -1525,6 +1543,15 @@
       <c r="F39">
         <v>562</v>
       </c>
+      <c r="G39">
+        <v>0.30512299999999998</v>
+      </c>
+      <c r="H39">
+        <v>0.26976499999999998</v>
+      </c>
+      <c r="I39">
+        <v>0.20602000000000001</v>
+      </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40">
@@ -1539,6 +1566,15 @@
       <c r="F40">
         <v>1011</v>
       </c>
+      <c r="G40">
+        <v>11.3126</v>
+      </c>
+      <c r="H40">
+        <v>9.1302800000000008</v>
+      </c>
+      <c r="I40">
+        <v>6.5271299999999997</v>
+      </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41">
@@ -1553,6 +1589,12 @@
       <c r="F41">
         <v>2362</v>
       </c>
+      <c r="G41">
+        <v>76.897199999999998</v>
+      </c>
+      <c r="H41">
+        <v>55.631599999999999</v>
+      </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42">
@@ -1566,6 +1608,20 @@
       </c>
       <c r="F42">
         <v>3799</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>8399</v>
+      </c>
+      <c r="C43">
+        <v>32699.599999999999</v>
+      </c>
+      <c r="D43">
+        <v>27404.799999999999</v>
+      </c>
+      <c r="F43">
+        <v>8399</v>
       </c>
     </row>
   </sheetData>

--- a/lab2_SIMD/SIMD实验数据.xlsx
+++ b/lab2_SIMD/SIMD实验数据.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>普通高斯消元实验1：不同部分向量化</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,15 +198,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>串行(ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSE(ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AVX(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q43"/>
+  <dimension ref="B2:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="88" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="88" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1460,6 +1476,9 @@
       <c r="B35" t="s">
         <v>38</v>
       </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
@@ -1471,17 +1490,11 @@
       <c r="D36" t="s">
         <v>40</v>
       </c>
-      <c r="F36" t="s">
-        <v>41</v>
-      </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -1494,17 +1507,12 @@
       <c r="D37">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>130</v>
       </c>
-      <c r="G37">
-        <v>5.9449999999999998E-3</v>
-      </c>
-      <c r="H37">
-        <v>7.5570000000000003E-3</v>
-      </c>
-      <c r="I37">
-        <v>6.3270000000000002E-3</v>
+      <c r="H37" s="1">
+        <f>C37/D37</f>
+        <v>0.96666666666666656</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -1517,17 +1525,12 @@
       <c r="D38">
         <v>0.23100000000000001</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>254</v>
       </c>
-      <c r="G38">
-        <v>0.213588</v>
-      </c>
-      <c r="H38">
-        <v>0.17572199999999999</v>
-      </c>
-      <c r="I38">
-        <v>0.15975600000000001</v>
+      <c r="H38" s="1">
+        <f>C38/D38</f>
+        <v>1.0047619047619047</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -1540,17 +1543,12 @@
       <c r="D39">
         <v>0.34200000000000003</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>562</v>
       </c>
-      <c r="G39">
-        <v>0.30512299999999998</v>
-      </c>
-      <c r="H39">
-        <v>0.26976499999999998</v>
-      </c>
-      <c r="I39">
-        <v>0.20602000000000001</v>
+      <c r="H39" s="1">
+        <f>C39/D39</f>
+        <v>1.0444444444444445</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -1563,17 +1561,12 @@
       <c r="D40">
         <v>14.784000000000001</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>1011</v>
       </c>
-      <c r="G40">
-        <v>11.3126</v>
-      </c>
-      <c r="H40">
-        <v>9.1302800000000008</v>
-      </c>
-      <c r="I40">
-        <v>6.5271299999999997</v>
+      <c r="H40" s="1">
+        <f>C40/D40</f>
+        <v>1.0769751082251082</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -1586,14 +1579,12 @@
       <c r="D41">
         <v>105.70399999999999</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>2362</v>
       </c>
-      <c r="G41">
-        <v>76.897199999999998</v>
-      </c>
-      <c r="H41">
-        <v>55.631599999999999</v>
+      <c r="H41" s="1">
+        <f>C41/D41</f>
+        <v>1.1580924089911453</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1606,8 +1597,12 @@
       <c r="D42">
         <v>2075.38</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>3799</v>
+      </c>
+      <c r="H42" s="1">
+        <f>C42/D42</f>
+        <v>1.1558461582939028</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -1620,8 +1615,218 @@
       <c r="D43">
         <v>27404.799999999999</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>8399</v>
+      </c>
+      <c r="H43" s="1">
+        <f>C43/D43</f>
+        <v>1.1932070294255022</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>130</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5.9449999999999998E-3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>7.5570000000000003E-3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>6.3270000000000002E-3</v>
+      </c>
+      <c r="G47">
+        <v>130</v>
+      </c>
+      <c r="H47" s="1">
+        <f>C47/D47</f>
+        <v>0.78668783908958573</v>
+      </c>
+      <c r="I47" s="1">
+        <f>C47/E47</f>
+        <v>0.93962383436067642</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>254</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.213588</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.17572199999999999</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.15975600000000001</v>
+      </c>
+      <c r="G48">
+        <v>254</v>
+      </c>
+      <c r="H48" s="1">
+        <f>C48/D48</f>
+        <v>1.2154881005224161</v>
+      </c>
+      <c r="I48" s="1">
+        <f>C48/E48</f>
+        <v>1.3369638699015998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>562</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.29162700000000003</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.239506</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.19444600000000001</v>
+      </c>
+      <c r="G49">
+        <v>562</v>
+      </c>
+      <c r="H49" s="1">
+        <f>C49/D49</f>
+        <v>1.2176187652918926</v>
+      </c>
+      <c r="I49" s="1">
+        <f>C49/E49</f>
+        <v>1.4997840017279862</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>1011</v>
+      </c>
+      <c r="C50" s="1">
+        <v>11.3126</v>
+      </c>
+      <c r="D50" s="1">
+        <v>9.1302800000000008</v>
+      </c>
+      <c r="E50" s="1">
+        <v>6.5271299999999997</v>
+      </c>
+      <c r="G50">
+        <v>1011</v>
+      </c>
+      <c r="H50" s="1">
+        <f>C50/D50</f>
+        <v>1.239020051958976</v>
+      </c>
+      <c r="I50" s="1">
+        <f>C50/E50</f>
+        <v>1.7331660316249256</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>2362</v>
+      </c>
+      <c r="C51" s="1">
+        <v>76.897199999999998</v>
+      </c>
+      <c r="D51" s="1">
+        <v>55.631599999999999</v>
+      </c>
+      <c r="E51" s="1">
+        <v>43.984499999999997</v>
+      </c>
+      <c r="G51">
+        <v>2362</v>
+      </c>
+      <c r="H51" s="1">
+        <f>C51/D51</f>
+        <v>1.3822575658438729</v>
+      </c>
+      <c r="I51" s="1">
+        <f>C51/E51</f>
+        <v>1.7482795075537974</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>3799</v>
+      </c>
+      <c r="C52">
+        <v>1259.1600000000001</v>
+      </c>
+      <c r="D52">
+        <v>873.91499999999996</v>
+      </c>
+      <c r="E52">
+        <v>717.98</v>
+      </c>
+      <c r="G52">
+        <v>3799</v>
+      </c>
+      <c r="H52" s="1">
+        <f>C52/D52</f>
+        <v>1.4408266250150188</v>
+      </c>
+      <c r="I52" s="1">
+        <f>C52/E52</f>
+        <v>1.7537535864508762</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>8399</v>
+      </c>
+      <c r="C53">
+        <v>16526.7</v>
+      </c>
+      <c r="D53">
+        <v>11056.7</v>
+      </c>
+      <c r="E53">
+        <v>8791.07</v>
+      </c>
+      <c r="G53">
+        <v>8399</v>
+      </c>
+      <c r="H53" s="1">
+        <f>C53/D53</f>
+        <v>1.4947226568505974</v>
+      </c>
+      <c r="I53" s="1">
+        <f>C53/E53</f>
+        <v>1.8799418045812399</v>
       </c>
     </row>
   </sheetData>
